--- a/Project 4 - Webscrape/SalesQL After Transformation.xlsx
+++ b/Project 4 - Webscrape/SalesQL After Transformation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G655"/>
+  <dimension ref="A1:G706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14399,32 +14399,32 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Ir. MOHAMED SHUHAIDI BIN OMAR</t>
+          <t>Ir. TAN CHIAT JOON</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>mohamed.omar@mymrt.com.my</t>
+          <t>chiatjoon@gmail.com</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>+60 1-800-88-6782</t>
+          <t>+60 12-427 2632</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -14436,12 +14436,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Ir. LUM WAI LEONG</t>
+          <t>Ir. TAN CHEW</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>waileonglum@gmail.com</t>
+          <t>gpteam.design@gmail.com</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -14461,15 +14461,27 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Ir. LOURDES RAJ A/L DHOMNIC</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr"/>
-      <c r="C454" t="inlineStr"/>
-      <c r="D454" t="inlineStr"/>
+          <t>Ir. TAN CHEE SIONG</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>tan.chee@festo.com</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>+31 20 236 3000</t>
+          <t>+91 1800 121 0036</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -14486,12 +14498,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Ir. LOO WEN SIANG</t>
+          <t>Ir. TAN CHEE SENG</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>wensiang668@yahoo.com</t>
+          <t>calvin_tcseng@yahoo.com</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -14511,32 +14523,44 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Ir. LOKMAN BIN MOHD NOH</t>
+          <t>Ir. TAN CHEE HSIANG</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>i-mohd@velosi.com</t>
+          <t>chsiangtan@gmail.com</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>+60 16-417 8776</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Ir. LIM WAI TAT</t>
+          <t>Ir. TAN CHEE HIN ERIC</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -14544,7 +14568,7 @@
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>+65 6407 0130</t>
+          <t>+60 3-2786 9300</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -14561,20 +14585,32 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Ir. LIM TENG HOO</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr"/>
-      <c r="C458" t="inlineStr"/>
-      <c r="D458" t="inlineStr"/>
+          <t>Ir. TAN BOON TIONG</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>michaeltbt86@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>+1 408-345-8886</t>
+          <t>+60 17-211 7168</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -14586,17 +14622,17 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Ir. LIM SZE WI</t>
+          <t>Ir. TAN BEE WAH</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>szewi.lim@gmail.com</t>
+          <t>tanbwah@majurutera.com</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -14611,12 +14647,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Ir. LIM JOO CHAI</t>
+          <t>Ir. T JAYAKUMAR A/L THURAIRAJAH</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ir@usm.my</t>
+          <t>ir@malaysiaairlines.com</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -14629,61 +14665,61 @@
           <t>accept_all_unverifiable</t>
         </is>
       </c>
-      <c r="E460" t="inlineStr"/>
-      <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>+60 3-7843 3000</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Ir. LIM FOONG LING</t>
+          <t>Ir. SYED ZULKARNAIN SHAH BIN SYED AHMAD KAMAL</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>lfl1981@yahoo.com</t>
+          <t>ir@jkr.gov.my</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>+1 281-552-5600</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Ir. LIM BENG HIAN</t>
+          <t>Ir. SYED FADZIL BIN SYED MOHAMED</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>zorock39@hotmail.com</t>
+          <t>syedfadzil@consultant.com</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -14691,59 +14727,83 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>+60 10-448 1139</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Ir. LEONG SEAK WAI</t>
+          <t>Ir. SURAZMY BIN SULONG @ MANSOR</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>leongseakwai@gmail.com</t>
+          <t>isulongmansor@chiyoda-almana.com</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr"/>
-      <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>+974 4407 4666</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Ir. LENNY MARLINA BINTI MOHD KAIRI</t>
+          <t>Ir. SUNDRALINGAM A/L MUTHANANDAN</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>lennymarlina.mohdkairi@gmail.com</t>
+          <t>sundralingam.muthanandan@petronas.com</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>+1 415-322-8349</t>
+          <t>+60 3-2051 5000</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -14760,12 +14820,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Ir. LEE POH HOCK CHRISTOPHER</t>
+          <t>Ir. SULAIMAN BIN MOHD MUSLIM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>lee.poh.hock@worleyparsons.com</t>
+          <t>ir@moh.gov.my</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -14775,59 +14835,47 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>+1 415-322-8349</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Ir. LEE CHE CHUAN</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr"/>
-      <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>+1 585-512-2000</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. SULAIMAN BIN KAMARI</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ir@jkr.gov.my</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Ir. LEE CHANG QUAN</t>
+          <t>Ir. SUKHAIRUL NIZAM ABDUL RAZAK</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>changquan.lee@gmail.com</t>
+          <t>irsukhai@yahoo.com</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -14840,22 +14888,46 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>+60 12-251 5093</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Ir. LEE CHANG CHEE</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr"/>
-      <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr"/>
+          <t>Ir. SUHELMEE BIN SAID</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>ir.said@bp.com</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>+1 610-296-8000</t>
+          <t>+49 234 3150</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -14872,17 +14944,17 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Ir. LAU CHUANG BING</t>
+          <t>Ir. SUHAIMI ISMAIL</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>tismytrail@yahoo.com</t>
+          <t>suhaimi.ismail@sapuraenergy.com</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>main job</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -14892,7 +14964,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>+1 630-894-3530</t>
+          <t>+60 3-8659 8800</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -14909,52 +14981,52 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Ir. LAI YEW HONG</t>
+          <t>Ir. SOPHIAN BIN RAIS</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>yewhong_ben@hotmail.com</t>
+          <t>sophianrais@blogspot.com</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>+1 973-455-2000</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Ir. LAI KHOON WAH</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr"/>
-      <c r="C471" t="inlineStr"/>
-      <c r="D471" t="inlineStr"/>
+          <t>Ir. SIVANANTHAN A/L JOTHEE SUBRAMANIAM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>sivananthan.jothee@technipfmc.com</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>main job</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>+60 3-5516 6100</t>
+          <t>+33 1 47 78 24 00</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -14971,49 +15043,37 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Ir. KUA CHIN TEE</t>
+          <t>Ir. SIVAKUMAR A/L POGEENDIRAN</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>chintee.kuah@gmail.com</t>
+          <t>sivakumar.pogeendiran@serikandi.com</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>+1 508-683-4000</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Ir. KHAIRUL IZHAM BIN HALIL</t>
+          <t>Ir. SIVA KUMARAN A/L CHIDAMBRAM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>ir.peng@petronas.com</t>
+          <t>ir.chidambram@shell.com</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -15028,12 +15088,12 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>+60 17-480 0705</t>
+          <t>+1 760-804-1900</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -15045,27 +15105,15 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Ir. KEVIN CHIA HOONG SUM</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>kevin_chs@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. SITI MARYAM BINTI MOHD KAMAL</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>+1 651-293-2233</t>
+          <t>+1 281-591-4000</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -15082,22 +15130,22 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Ir. KESAVAN A/L JAGANATHAN</t>
+          <t>Ir. SITI AFIZAH BT AFFANDI</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>kesavan.jaganathan@cansultmaunsell.com</t>
+          <t>afizahaffandi@yahoo.com</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -15107,12 +15155,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Ir. KAMARULZAMAN BIN IBRAHIM</t>
+          <t>Ir. SIA YOCK HENG</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ir.kamarulzaman@gmail.com</t>
+          <t>siayh2@gmail.com</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15125,61 +15173,61 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>+1 415-322-8349</t>
-        </is>
-      </c>
-      <c r="F476" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Ir. KAMARUDDIN BIN AB GHANI</t>
+          <t>Ir. SIA HUA JIUH</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>kag272@gmail.com</t>
+          <t>ir.hua@petronas.com</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr"/>
-      <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>+60 3-2051 5000</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Ir. JULIAN SAW CHERN-YANN</t>
+          <t>Ir. SHUHAIMI BIN ISMAIL</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>julian.saw@gmail.com</t>
+          <t>shuhaimi@myisis-resources.com</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -15187,36 +15235,24 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>+60 3-7971 7623</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Ir. JONG FUNG SWEE</t>
+          <t>Ir. SHOFI BIN AHMAD</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>jongfs@sarawaknet.gov.my</t>
+          <t>shofi@dominantenergy.com.my</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>main job</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -15224,22 +15260,46 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>+60 6-312 1675</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Ir. JAZLEE BIN MOHD ALIAS</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr"/>
-      <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr"/>
+          <t>Ir. SHEIKH FAHMI BIN SHEIKH MOHD</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>sheikh@sapuraenergy.com</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>main job</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>+1 415-322-8349</t>
+          <t>+60 3-8659 8800</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -15256,12 +15316,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Ir. JAMALUDIN BIN MUSTAKIM</t>
+          <t>Ir. SHAHUL HAMID BIN MOHD ISMAIL</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>jamal_mus@yahoo.com</t>
+          <t>shahul.hamid8@gmail.com</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -15281,17 +15341,17 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Ir. ISHRAQI BIN MOHD NOR</t>
+          <t>Ir. SHAHARUDIN BIN HAMIDUN</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ish7179@gmail.com</t>
+          <t>shaharudin.hamidun@sbmoffshore.com</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>main job</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -15299,22 +15359,46 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E482" t="inlineStr"/>
-      <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>+31 20 236 3000</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Ir. ISFANIZAM BIN ISMAIL</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr"/>
-      <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr"/>
+          <t>Ir. MOHAMED SHUHAIDI BIN OMAR</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>mohamed.omar@mymrt.com.my</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>+49 511 93801</t>
+          <t>+60 1-800-88-6782</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -15331,62 +15415,62 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Ir. IRFAH BINTI ISMAIL</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>+420 511 182 400</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. LUM WAI LEONG</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>waileonglum@gmail.com</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Ir. IKHWAN BIN MD TAB</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>ikhwan@gmail.com</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E485" t="inlineStr"/>
-      <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+          <t>Ir. LOURDES RAJ A/L DHOMNIC</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>+31 20 236 3000</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Ir. HUAN TECK TIONG</t>
+          <t>Ir. LOO WEN SIANG</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>tecktiong@gmail.com</t>
+          <t>wensiang668@yahoo.com</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -15406,32 +15490,32 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Ir. HO KENG KAI</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr"/>
-      <c r="C487" t="inlineStr"/>
-      <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>+1 781-246-5200</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. LOKMAN BIN MOHD NOH</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>i-mohd@velosi.com</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Ir. HO CHOON FEI</t>
+          <t>Ir. LIM WAI TAT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -15439,7 +15523,7 @@
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>+60 3-5891 5812</t>
+          <t>+65 6407 0130</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -15456,7 +15540,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Ir. HISHAM BIN MOKHTAR</t>
+          <t>Ir. LIM TENG HOO</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -15464,7 +15548,7 @@
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>+420 511 182 400</t>
+          <t>+1 408-345-8886</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -15481,22 +15565,22 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Ir. HASRIL BIN HASINI</t>
+          <t>Ir. LIM SZE WI</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>hasril@bem.org.my</t>
+          <t>szewi.lim@gmail.com</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -15506,49 +15590,37 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Ir. HARRIS BIN ABD RAHMAN SABRI</t>
+          <t>Ir. LIM JOO CHAI</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>harris.ars@gmail.com</t>
+          <t>ir@usm.my</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>+60 12-324 2194</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Ir. HANIZA BINTI HARON</t>
+          <t>Ir. LIM FOONG LING</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>haniza_hanbee@yahoo.com</t>
+          <t>lfl1981@yahoo.com</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -15561,19 +15633,31 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>+1 281-552-5600</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Ir. HALIMI BIN ISMAIL</t>
+          <t>Ir. LIM BENG HIAN</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ismail.halimi@gmail.com</t>
+          <t>zorock39@hotmail.com</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -15593,17 +15677,17 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Ir. GOPAL A/L NARIAN KUTTY</t>
+          <t>Ir. LEONG SEAK WAI</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>gopal@jkr.gov.my</t>
+          <t>leongseakwai@gmail.com</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -15618,12 +15702,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Ir. GOH CHUN SHIAN</t>
+          <t>Ir. LENNY MARLINA BINTI MOHD KAIRI</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>atlasgoh@gmail.com</t>
+          <t>lennymarlina.mohdkairi@gmail.com</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -15638,12 +15722,12 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>+60 14-919 7721</t>
+          <t>+1 415-322-8349</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -15655,15 +15739,27 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Ir. GERALD LIM CHIN SIONG</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr"/>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
+          <t>Ir. LEE POH HOCK CHRISTOPHER</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>lee.poh.hock@worleyparsons.com</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>+1 269-924-0791</t>
+          <t>+1 415-322-8349</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -15680,27 +15776,15 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Ir. FAIT BIN HANAPI</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>ir@cidb.gov.my</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
+          <t>Ir. LEE CHE CHUAN</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>+60 5-450 6000</t>
+          <t>+1 585-512-2000</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -15717,12 +15801,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Ir. EZWAN BIN MOKHTAR</t>
+          <t>Ir. LEE CHANG QUAN</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>ezwanmokhtar@gmail.com</t>
+          <t>changquan.lee@gmail.com</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -15735,56 +15819,44 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>+60 9-771 7000</t>
-        </is>
-      </c>
-      <c r="F498" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Ir. EMI HAFIZZUL BIN JAMALUDDIN</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>emijamalud@gmail.com</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+          <t>Ir. LEE CHANG CHEE</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>+1 610-296-8000</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Ir. Dr. ZAMRI BIN MOHAMED</t>
+          <t>Ir. LAU CHUANG BING</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>zamripenn@gmail.com</t>
+          <t>tismytrail@yahoo.com</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -15799,7 +15871,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>+60 9-424 5000</t>
+          <t>+1 630-894-3530</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -15816,62 +15888,74 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Ir. Dr. TAN CHEE FAI</t>
+          <t>Ir. LAI YEW HONG</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>chee-fai@tusstar.my</t>
+          <t>yewhong_ben@hotmail.com</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>+1 973-455-2000</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Ir. Dr. SHAHARIN ANWAR BIN SULAIMAN</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>shaharin@petronas.com.my</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+          <t>Ir. LAI KHOON WAH</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>+60 3-5516 6100</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Ir. Dr. MOKHTAR BIN CHE ISMAIL</t>
+          <t>Ir. KUA CHIN TEE</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>mokhtis@yahoo.com</t>
+          <t>chintee.kuah@gmail.com</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -15884,27 +15968,51 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>+1 508-683-4000</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Ir. Dr. MOHD FAIRUSHAM BIN GHAZALI</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr"/>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr"/>
+          <t>Ir. KHAIRUL IZHAM BIN HALIL</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>ir.peng@petronas.com</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>+60 9-424 5000</t>
+          <t>+60 17-480 0705</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -15916,17 +16024,17 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Ir. Dr. MOHAMMAD SHAHRIL BIN OSMAN</t>
+          <t>Ir. KEVIN CHIA HOONG SUM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>osman@ucts.edu.my</t>
+          <t>kevin_chs@yahoo.com</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -15936,7 +16044,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>+60 84-367 300</t>
+          <t>+1 651-293-2233</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -15953,22 +16061,22 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Ir. Dr. KWONG QI JIE</t>
+          <t>Ir. KESAVAN A/L JAGANATHAN</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>jonaskqj@yahoo.com</t>
+          <t>kesavan.jaganathan@cansultmaunsell.com</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -15978,12 +16086,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Ir. Dr. KHAIRUL NIZAM BIN MD TOHIT</t>
+          <t>Ir. KAMARULZAMAN BIN IBRAHIM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>chairulniezam@gmail.com</t>
+          <t>ir.kamarulzaman@gmail.com</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -15998,12 +16106,12 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>+60 12-384 4127</t>
+          <t>+1 415-322-8349</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -16015,12 +16123,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Ir. Dr. GANEINDRAN S/O SINNATHAMBY</t>
+          <t>Ir. KAMARUDDIN BIN AB GHANI</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>irsganeindran@gmail.com</t>
+          <t>kag272@gmail.com</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -16033,36 +16141,24 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>+234 708 747 0577</t>
-        </is>
-      </c>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Ir. Dr. FARID NASIR BIN ANI</t>
+          <t>Ir. JULIAN SAW CHERN-YANN</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>farid@fkm.utm.my</t>
+          <t>julian.saw@gmail.com</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -16072,7 +16168,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>+60 7-553 3333</t>
+          <t>+60 3-7971 7623</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -16089,62 +16185,62 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Ir. Dr. FAIZAL BIN MUSTAPHA</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr"/>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>+60 3-9769 1000</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. JONG FUNG SWEE</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>jongfs@sarawaknet.gov.my</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Ir. Dr. BALAMURUGAN ANNAMALAI GURUNATHAN</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>balaag27@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+          <t>Ir. JAZLEE BIN MOHD ALIAS</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>+1 415-322-8349</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Ir. Dr. AZMI BIN MOHAMMED NOR</t>
+          <t>Ir. JAMALUDIN BIN MUSTAKIM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>azmi.mnor68@gmail.com</t>
+          <t>jamal_mus@yahoo.com</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -16164,32 +16260,32 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Ir. Dr. ANDREW RAGAI HENRY RIGIT</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr"/>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>+60 82-581 000</t>
-        </is>
-      </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. ISHRAQI BIN MOHD NOR</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>ish7179@gmail.com</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Ir. Dr. ABDUL AZIM BIN ABDUL RAHMAN</t>
+          <t>Ir. ISFANIZAM BIN ISMAIL</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -16197,7 +16293,7 @@
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>+1 616-246-4821</t>
+          <t>+49 511 93801</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -16214,27 +16310,15 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Ir. DING JU LIANG</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>ding.ju.liang@gmail.com</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. IRFAH BINTI ISMAIL</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>+1 904-791-4500</t>
+          <t>+420 511 182 400</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -16251,102 +16335,90 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Ir. DANARAJ A/L CHANDRASEGARAN</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr"/>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>+60 10-771 4576</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. IKHWAN BIN MD TAB</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ikhwan@gmail.com</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Ir. CHOW HOE SENG</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr"/>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>+31 20 236 3000</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. HUAN TECK TIONG</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>tecktiong@gmail.com</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Ir. CHOW CHEE CHOY</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>ccchow1973@gmail.com</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>Ir. HO KENG KAI</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>+1 781-246-5200</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Ir. CHONG XIN XI</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>x_x_star@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. HO CHOON FEI</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>+1 781-246-5200</t>
+          <t>+60 3-5891 5812</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -16363,27 +16435,15 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Ir. CHOK YUN VUN</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>yunvun@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. HISHAM BIN MOKHTAR</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>+1 281-293-1000</t>
+          <t>+420 511 182 400</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -16400,37 +16460,37 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Ir. CHOK YIN THONG</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr"/>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>+1 973-455-2000</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. HASRIL BIN HASINI</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>hasril@bem.org.my</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Ir. CHIN CHEE LEONG</t>
+          <t>Ir. HARRIS BIN ABD RAHMAN SABRI</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>cheeleong91@live.com.my</t>
+          <t>harris.ars@gmail.com</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -16445,12 +16505,12 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>+60 4-545 9988</t>
+          <t>+60 12-324 2194</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -16462,12 +16522,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Ir. CHEE YEW JIN</t>
+          <t>Ir. HANIZA BINTI HARON</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>yewjin15@hotmail.com</t>
+          <t>haniza_hanbee@yahoo.com</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -16487,42 +16547,42 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Ir. CHAN CHEE HONG</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr"/>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>+60 4-401 0100</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. HALIMI BIN ISMAIL</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>ismail.halimi@gmail.com</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Ir. BHASKAR A/L KANNAN</t>
+          <t>Ir. GOPAL A/L NARIAN KUTTY</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>bhaskar.kannan02@gmail.com</t>
+          <t>gopal@jkr.gov.my</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -16537,17 +16597,17 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
+          <t>Ir. GOH CHUN SHIAN</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>bernard@bluesnowenergy.com</t>
+          <t>atlasgoh@gmail.com</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -16555,39 +16615,39 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>+60 14-919 7721</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Ir. BENJAMIN NG CHONG JIN</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>bncj@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. GERALD LIM CHIN SIONG</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>+60 19-223 7766</t>
+          <t>+1 269-924-0791</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -16599,15 +16659,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Ir. BAHROM BIN BAHARIN</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr"/>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr"/>
+          <t>Ir. FAIT BIN HANAPI</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>ir@cidb.gov.my</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>+420 511 182 400</t>
+          <t>+60 5-450 6000</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -16624,12 +16696,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Ir. AZMI BIN AWI</t>
+          <t>Ir. EZWAN BIN MOKHTAR</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>azmiawi@me.com</t>
+          <t>ezwanmokhtar@gmail.com</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -16642,47 +16714,71 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>+60 9-771 7000</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Ir. AZMAN BIN MD ISA</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr"/>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>+60 3-5191 1055</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. EMI HAFIZZUL BIN JAMALUDDIN</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>emijamalud@gmail.com</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Ir. AZIZUL AZUAN BIN SAHRUM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr"/>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr"/>
+          <t>Ir. Dr. ZAMRI BIN MOHAMED</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>zamripenn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>+60 3-9054 5071</t>
+          <t>+60 9-424 5000</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -16699,12 +16795,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Ir. AZHAN BIN SALLEH</t>
+          <t>Ir. Dr. TAN CHEE FAI</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>azhan@ga.toyo-eng.co.jp</t>
+          <t>chee-fai@tusstar.my</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -16714,7 +16810,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -16724,37 +16820,37 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Ir. AU CHONG HUN</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr"/>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>+60 3-7958 3655</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. Dr. SHAHARIN ANWAR BIN SULAIMAN</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>shaharin@petronas.com.my</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Ir. ATHIRAH BT MUSTAMIR DT BANDHARO</t>
+          <t>Ir. Dr. MOKHTAR BIN CHE ISMAIL</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>athirahmustamir@yahoo.com</t>
+          <t>mokhtis@yahoo.com</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -16767,61 +16863,49 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>+60 18-259 3866</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Ir. ASMADENA BINTI MD HALIMI</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>asmadena@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
+          <t>Ir. Dr. MOHD FAIRUSHAM BIN GHAZALI</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>+60 9-424 5000</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Ir. ARDY SUHAIDY BIN MUSTAPHA</t>
+          <t>Ir. Dr. MOHAMMAD SHAHRIL BIN OSMAN</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ardy82@hotmail.com</t>
+          <t>osman@ucts.edu.my</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -16829,19 +16913,31 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>+60 84-367 300</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Ir. AQIL SIDDIQ BIN MUSTAPHA</t>
+          <t>Ir. Dr. KWONG QI JIE</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>qirk_26@yahoo.com</t>
+          <t>jonaskqj@yahoo.com</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -16854,39 +16950,39 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>+31 20 236 3000</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Ir. ANUAR BIN MOHAMAD</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr"/>
+          <t>Ir. Dr. KHAIRUL NIZAM BIN MD TOHIT</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>chairulniezam@gmail.com</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>+1 781-246-5200</t>
+          <t>+60 12-384 4127</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -16898,20 +16994,32 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Ir. ANTHONY HUANG KIONG HUAT</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr"/>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
+          <t>Ir. Dr. GANEINDRAN S/O SINNATHAMBY</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>irsganeindran@gmail.com</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>+60 11-5553 7626</t>
+          <t>+234 708 747 0577</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -16923,17 +17031,17 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Ir. ANDREW S R AMALADOSS</t>
+          <t>Ir. Dr. FARID NASIR BIN ANI</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>andrew.amaladoss@gmail.com</t>
+          <t>farid@fkm.utm.my</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -16941,69 +17049,81 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>+60 7-553 3333</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Ir. ANA MIRAA BT MOHD YUSOF</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>ana_miraa@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr"/>
+          <t>Ir. Dr. FAIZAL BIN MUSTAPHA</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>+60 3-9769 1000</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Ir. AMMERAN BIN MAD</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr"/>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>+1 415-322-8349</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. Dr. BALAMURUGAN ANNAMALAI GURUNATHAN</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>balaag27@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Ir. ALZAKRI BIN EKHWAN</t>
+          <t>Ir. Dr. AZMI BIN MOHAMMED NOR</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>alzakri@gmail.com</t>
+          <t>azmi.mnor68@gmail.com</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -17023,62 +17143,62 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Ir. ALEXON JONG SZE CHIEN</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>alexon.jong@gmail.com</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
+          <t>Ir. Dr. ANDREW RAGAI HENRY RIGIT</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>+60 82-581 000</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Ir. AIDID BIN CHEE TAHIR</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>aidid.cheetahir@new.ox.ac.uk</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+          <t>Ir. Dr. ABDUL AZIM BIN ABDUL RAHMAN</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>+1 616-246-4821</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Ir. AHMAD RIDZUAN BIN BAHARUDIN</t>
+          <t>Ir. DING JU LIANG</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ahmadridzuan74@yahoo.co.uk</t>
+          <t>ding.ju.liang@gmail.com</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -17091,14 +17211,26 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>+1 904-791-4500</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Ir. AHMAD FADZLI BIN HASHIM</t>
+          <t>Ir. DANARAJ A/L CHANDRASEGARAN</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -17106,12 +17238,12 @@
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>+1 212-896-3000</t>
+          <t>+60 10-771 4576</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -17123,62 +17255,62 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Ir. ADZNIR BIN MOKHTAR</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>adznir@gmail.com</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+          <t>Ir. CHOW HOE SENG</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>+31 20 236 3000</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Ir. ADNAN BIN MOHAMAD</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr"/>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>+1 415-322-8349</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. CHOW CHEE CHOY</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>ccchow1973@gmail.com</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Ir. ABDUL HALIM BIN SHAMSUDDIN</t>
+          <t>Ir. CHONG XIN XI</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>halim710302@gmail.com</t>
+          <t>x_x_star@hotmail.com</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -17193,12 +17325,12 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>+60 19-278 4840</t>
+          <t>+1 781-246-5200</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -17210,91 +17342,111 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>DATO' Ir. JAMLUS BIN HAJI AZIZ</t>
+          <t>Ir. CHOK YUN VUN</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>dato@isp.org.my</t>
+          <t>yunvun@yahoo.com</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>+1 281-293-1000</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr"/>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>muhammadamran40@gmail.com</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Ir. CHOK YIN THONG</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>+60129853097</t>
+          <t>+1 973-455-2000</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>valid</t>
         </is>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr"/>
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Ir. CHIN CHEE LEONG</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ungku@mitssolutions.asia</t>
+          <t>cheeleong91@live.com.my</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr"/>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>+60 4-545 9988</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Ir. ALBERT GOH CHEE KONG</t>
+          <t>Ir. CHEE YEW JIN</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>albert_gck@yahoo.com</t>
+          <t>yewjin15@hotmail.com</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -17312,35 +17464,39 @@
       <c r="G554" t="inlineStr"/>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr"/>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>arielcamino@gmail.com</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Ir. CHAN CHEE HONG</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>+60 4-401 0100</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Ir. SATHU PILLAY GOVINDASAMY</t>
+          <t>Ir. BHASKAR A/L KANNAN</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>gsathupillay@yahoo.com</t>
+          <t>bhaskar.kannan02@gmail.com</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -17360,17 +17516,17 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Ir. SANTHA KUMARAN A/L ERUSAN</t>
+          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>stasanta@yahoo.com</t>
+          <t>bernard@bluesnowenergy.com</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -17385,20 +17541,32 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Ir. S MUGENESWARAN A/L SHANMUGAM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr"/>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr"/>
+          <t>Ir. BENJAMIN NG CHONG JIN</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>bncj@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>+44 161 764 3155</t>
+          <t>+60 19-223 7766</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -17410,117 +17578,117 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Ir. ROSLI ABU BAKAR</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>rosli.bakar@worleyparsons.com</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+          <t>Ir. BAHROM BIN BAHARIN</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>+420 511 182 400</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Ir. ROHAIZAT BIN OMAR</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr"/>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>+60 3-5544 6960</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. AZMI BIN AWI</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>azmiawi@me.com</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Ir. ROBERT CHUA GEOK BENG</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>rob_chua@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr"/>
+          <t>Ir. AZMAN BIN MD ISA</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>+60 3-5191 1055</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Ir. RIZAIDI BIN ROHIM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>rizaidi.rohim@gmail.com</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr"/>
+          <t>Ir. AZIZUL AZUAN BIN SAHRUM</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>+60 3-9054 5071</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Ir. RAJKUMAR A/L PALANIAPPAN</t>
+          <t>Ir. AZHAN BIN SALLEH</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>rajkumar.palaniappan@gmail.com</t>
+          <t>azhan@ga.toyo-eng.co.jp</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -17528,56 +17696,44 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>+65 8660 7120</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Ir. RAJ SEKAR A/L SETHU</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>rajzmail@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
+          <t>Ir. AU CHONG HUN</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>+60 3-7958 3655</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Ir. RAHMAT BIN MOHD YACOB</t>
+          <t>Ir. ATHIRAH BT MUSTAMIR DT BANDHARO</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>rahmatyacob@yahoo.com</t>
+          <t>athirahmustamir@yahoo.com</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -17590,19 +17746,31 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>+60 18-259 3866</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Ir. PRAKASH A/L THIRUNAVAKARASU</t>
+          <t>Ir. ASMADENA BINTI MD HALIMI</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>nashnell@yahoo.com</t>
+          <t>asmadena@yahoo.com</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -17622,12 +17790,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Ir. POH HEON KHOON</t>
+          <t>Ir. ARDY SUHAIDY BIN MUSTAPHA</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>hkpoh2003@yahoo.com</t>
+          <t>ardy82@hotmail.com</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -17647,15 +17815,27 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Ir. PHILIP OOI POH LEONG</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr"/>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr"/>
+          <t>Ir. AQIL SIDDIQ BIN MUSTAPHA</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>qirk_26@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>+60 3-2718 1118</t>
+          <t>+31 20 236 3000</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -17672,52 +17852,40 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Ir. OOI TZE HOONG</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>oth910822@gmail.com</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
+          <t>Ir. ANUAR BIN MOHAMAD</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>+1 781-246-5200</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Ir. OOI CHIN KEONG</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>freddyooi3@yahoo.co.uk</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. ANTHONY HUANG KIONG HUAT</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>+1 408-765-8080</t>
+          <t>+60 11-5553 7626</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -17734,22 +17902,22 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Ir. ONG YIH MIIN</t>
+          <t>Ir. ANDREW S R AMALADOSS</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>yih.ong@worley.com</t>
+          <t>andrew.amaladoss@gmail.com</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -17759,12 +17927,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Ir. OMAR ANUAR BIN ROSLAY</t>
+          <t>Ir. ANA MIRAA BT MOHD YUSOF</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>omaranuarr@gmail.com</t>
+          <t>ana_miraa@yahoo.com</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -17784,37 +17952,37 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Ir. NORKAMAL LATIF BIN ZAINUDDIN</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>norkamal_latif@yahoo.com</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+          <t>Ir. AMMERAN BIN MAD</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>+1 415-322-8349</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Ir. NORHAZLI BIN ASAAD</t>
+          <t>Ir. ALZAKRI BIN EKHWAN</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>nanorha@hotmail.com</t>
+          <t>alzakri@gmail.com</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -17834,12 +18002,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Ir. NORHAFIZ BIN JAAFAR</t>
+          <t>Ir. ALEXON JONG SZE CHIEN</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>norhafizj@gmail.com</t>
+          <t>alexon.jong@gmail.com</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -17852,36 +18020,24 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>+1 902-490-8900</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Ir. NOOR AZAM BIN MD SAAD</t>
+          <t>Ir. AIDID BIN CHEE TAHIR</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>noorazam.msaad@gmail.com</t>
+          <t>aidid.cheetahir@new.ox.ac.uk</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -17896,12 +18052,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Ir. NIZAMIL FAIRUZ YAHYA</t>
+          <t>Ir. AHMAD RIDZUAN BIN BAHARUDIN</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>nizamil92@hotmail.com</t>
+          <t>ahmadridzuan74@yahoo.co.uk</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -17914,26 +18070,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>+1 416-385-3922</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Ir. NIK MOHD ZUKI BIN NIK MOHAMED</t>
+          <t>Ir. AHMAD FADZLI BIN HASHIM</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -17941,7 +18085,7 @@
       <c r="D578" t="inlineStr"/>
       <c r="E578" t="inlineStr">
         <is>
-          <t>+60 9-424 5000</t>
+          <t>+1 212-896-3000</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -17958,12 +18102,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Ir. NIK MOHD HASMIZIE NIK MOHD KAMIL</t>
+          <t>Ir. ADZNIR BIN MOKHTAR</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>hasmizie@gmail.com</t>
+          <t>adznir@gmail.com</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -17976,26 +18120,14 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>+60 19-209 6486</t>
-        </is>
-      </c>
-      <c r="F579" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Ir. NG HAN PEI</t>
+          <t>Ir. ADNAN BIN MOHAMAD</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -18003,12 +18135,12 @@
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr">
         <is>
-          <t>+60 17-379 3989</t>
+          <t>+1 415-322-8349</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
@@ -18020,20 +18152,32 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Ir. NG GUAN LEE</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr"/>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
+          <t>Ir. ABDUL HALIM BIN SHAMSUDDIN</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>halim710302@gmail.com</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>+1 408-765-8080</t>
+          <t>+60 19-278 4840</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -18045,22 +18189,22 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Ir. NG CHEE SING</t>
+          <t>DATO' Ir. JAMLUS BIN HAJI AZIZ</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>danny.ng-92@hotmail.co.uk</t>
+          <t>dato@isp.org.my</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -18068,14 +18212,10 @@
       <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>Ir. NAZRULHISHAM BIN OSMAN</t>
-        </is>
-      </c>
+      <c r="A583" t="inlineStr"/>
       <c r="B583" t="inlineStr">
         <is>
-          <t>nazrul38@yahoo.com</t>
+          <t>muhammadamran40@gmail.com</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -18088,29 +18228,37 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>+60129853097</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>Ir. NAJIB BIN HASHIM</t>
-        </is>
-      </c>
+      <c r="A584" t="inlineStr"/>
       <c r="B584" t="inlineStr">
         <is>
-          <t>najib.hashim@gmail.com</t>
+          <t>ungku@mitssolutions.asia</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -18120,12 +18268,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Ir. MUSTPHA KAMAL BIN ZAINAL</t>
+          <t>Ir. ALBERT GOH CHEE KONG</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>world2pc@gmail.com</t>
+          <t>albert_gck@yahoo.com</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -18143,39 +18291,35 @@
       <c r="G585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Ir. MURSYIDI BIN MOHAMMAD</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>+60 13-207 0696</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>arielcamino@gmail.com</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
+          <t>Ir. SATHU PILLAY GOVINDASAMY</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>rizanixx@yahoo.com</t>
+          <t>gsathupillay@yahoo.com</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -18188,31 +18332,19 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>+31 20 236 3000</t>
-        </is>
-      </c>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Ir. MUHAMAD RIDZHUAN BIN OTHMAN</t>
+          <t>Ir. SANTHA KUMARAN A/L ERUSAN</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>mridzhuan@gmail.com</t>
+          <t>stasanta@yahoo.com</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -18232,42 +18364,42 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Ir. MUAMMAR GADAFI BIN OTHMAN</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>mgadafi_othman@petronas.com.my</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr"/>
+          <t>Ir. S MUGENESWARAN A/L SHANMUGAM</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>+44 161 764 3155</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Ir. MOHD YUSRIZAL BIN MOHD YUSOF</t>
+          <t>Ir. ROSLI ABU BAKAR</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>mmohdyus@gmail.com</t>
+          <t>rosli.bakar@worleyparsons.com</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -18282,42 +18414,42 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Ir. MOHD SYAZWAN BIN MD ZAIN</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>syazwanmz@gmail.com</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr"/>
+          <t>Ir. ROHAIZAT BIN OMAR</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>+60 3-5544 6960</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Ir. MOHD SHAHRIZAN MD MOKHTAR</t>
+          <t>Ir. ROBERT CHUA GEOK BENG</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>shah79@linuxmail.org</t>
+          <t>rob_chua@yahoo.com</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -18325,36 +18457,24 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>+31 20 236 3000</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Ir. MOHD SAZLI ISMAIL</t>
+          <t>Ir. RIZAIDI BIN ROHIM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>sazli_ismail@petronas.com.my</t>
+          <t>rizaidi.rohim@gmail.com</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -18369,20 +18489,32 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Ir. MOHD ROZALI BIN AHMAD</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr"/>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr"/>
+          <t>Ir. RAJKUMAR A/L PALANIAPPAN</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>rajkumar.palaniappan@gmail.com</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>+1 408-658-1000</t>
+          <t>+65 8660 7120</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -18394,37 +18526,37 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Ir. MOHD RASHIDI BIN MAAROF</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr"/>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>+60 9-424 5000</t>
-        </is>
-      </c>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. RAJ SEKAR A/L SETHU</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>rajzmail@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Ir. MOHD NAJIB HAMSAN</t>
+          <t>Ir. RAHMAT BIN MOHD YACOB</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>jeebers101@gmail.com</t>
+          <t>rahmatyacob@yahoo.com</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -18444,49 +18576,37 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Ir. MOHD KAMAL HAZIQ BIN KAMARUZAMAN</t>
+          <t>Ir. PRAKASH A/L THIRUNAVAKARASU</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>ir..bin@meinhardtgroup.com</t>
+          <t>nashnell@yahoo.com</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr">
-        <is>
-          <t>+60 3-9212 7676</t>
-        </is>
-      </c>
-      <c r="F597" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Ir. MOHD KAMAL BIN MISDAR</t>
+          <t>Ir. POH HEON KHOON</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>mohdkamalmisdar@yahoo.com</t>
+          <t>hkpoh2003@yahoo.com</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -18499,66 +18619,54 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E598" t="inlineStr">
-        <is>
-          <t>+60 13-206 8003</t>
-        </is>
-      </c>
-      <c r="F598" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Ir. MOHD HANAFIAH B BESAR SA'AID</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>han1391@gmail.com</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr"/>
+          <t>Ir. PHILIP OOI POH LEONG</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>+60 3-2718 1118</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Ir. MOHD HAFIZI BIN AHMAD</t>
+          <t>Ir. OOI TZE HOONG</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ir@utm.my</t>
+          <t>oth910822@gmail.com</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -18568,15 +18676,27 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Ir. MOHD FAZIDIN BIN FAISAL</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
+          <t>Ir. OOI CHIN KEONG</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>freddyooi3@yahoo.co.uk</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>+1 212-896-3000</t>
+          <t>+1 408-765-8080</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -18593,22 +18713,22 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Ir. MOHD FADHIR BIN AKHKAR ALI</t>
+          <t>Ir. ONG YIH MIIN</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>mfadhirali@gmail.com</t>
+          <t>yih.ong@worley.com</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>accept_all_unverifiable</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -18618,17 +18738,17 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Ir. MOHAMMAD BASAR BIN UMAR</t>
+          <t>Ir. OMAR ANUAR BIN ROSLAY</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>mohammad.umar@mottmac.com.my</t>
+          <t>omaranuarr@gmail.com</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -18643,17 +18763,17 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Ir. MOHAMAD FARID BIN HAJI MUSTAFA</t>
+          <t>Ir. NORKAMAL LATIF BIN ZAINUDDIN</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>farid_mustafa@petronas.com.my</t>
+          <t>norkamal_latif@yahoo.com</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -18668,37 +18788,37 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Ir. MD ZAID BIN YUNOS</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr"/>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr"/>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>+60 1-300-88-5808</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. NORHAZLI BIN ASAAD</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>nanorha@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Ir. MD YUSOF BIN ISMAIL</t>
+          <t>Ir. NORHAFIZ BIN JAAFAR</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>yusof8400@yahoo.co.uk</t>
+          <t>norhafizj@gmail.com</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -18713,7 +18833,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>+92 51 9257988</t>
+          <t>+1 902-490-8900</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -18730,12 +18850,12 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>PROF. Ir. Dr. MD YUSOF BIN ISMAIL (C)</t>
+          <t>Ir. NOOR AZAM BIN MD SAAD</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>yusof8400@yahoo.co.uk</t>
+          <t>noorazam.msaad@gmail.com</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -18748,36 +18868,24 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>+92 51 9257988</t>
-        </is>
-      </c>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Ir. MAZNORZUHAIRI BIN MOHAMAD</t>
+          <t>Ir. NIZAMIL FAIRUZ YAHYA</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>maznorzuhairi.mohamad@singlebuoy.com</t>
+          <t>nizamil92@hotmail.com</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -18785,34 +18893,34 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr"/>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>+1 416-385-3922</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Ir. MATHEN KUMAR A/L RAMACHENDRAM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>mathenk@rocketmail.com</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. NIK MOHD ZUKI BIN NIK MOHAMED</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
       <c r="E609" t="inlineStr">
         <is>
-          <t>+60 4-615 1000</t>
+          <t>+60 9-424 5000</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -18829,12 +18937,12 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Ir. LUM WAI LEONG</t>
+          <t>Ir. NIK MOHD HASMIZIE NIK MOHD KAMIL</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>liverpooldude1@hotmail.com</t>
+          <t>hasmizie@gmail.com</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -18847,14 +18955,26 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr"/>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>+60 19-209 6486</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Ir. LOURDES RAJ A/L DHOMNIC</t>
+          <t>Ir. NG HAN PEI</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -18862,12 +18982,12 @@
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr">
         <is>
-          <t>+1 281-848-6000</t>
+          <t>+60 17-379 3989</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -18879,62 +18999,62 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Ir. LOKMAN BIN MOHD NOH</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>lokman.ccesb@gmail.com</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr"/>
+          <t>Ir. NG GUAN LEE</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>+1 408-765-8080</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Ir. LIM WAI TAT</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr"/>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>+65 6408 2000</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. NG CHEE SING</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>danny.ng-92@hotmail.co.uk</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Ir. LIM JOO CHAI</t>
+          <t>Ir. NAZRULHISHAM BIN OSMAN</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>jc.promech@gmail.com</t>
+          <t>nazrul38@yahoo.com</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -18954,57 +19074,57 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Ir. LIM FOONG LING</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr"/>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr">
-        <is>
-          <t>+41 43 210 22 00</t>
-        </is>
-      </c>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. NAJIB BIN HASHIM</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>najib.hashim@gmail.com</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Ir. LEE CHE CHUAN</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr"/>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr"/>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>+1 415-291-3700</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MUSTPHA KAMAL BIN ZAINAL</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>world2pc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Ir. LAU CHUANG BING</t>
+          <t>Ir. MURSYIDI BIN MOHAMMAD</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -19012,12 +19132,12 @@
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr">
         <is>
-          <t>+1 206-632-8812</t>
+          <t>+60 13-207 0696</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
@@ -19029,15 +19149,27 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Ir. LAI YEW HONG</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr"/>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
+          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>rizanixx@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>+40 31 224 3000</t>
+          <t>+31 20 236 3000</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -19054,12 +19186,12 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Ir. KHAIRUL IZHAM BIN HALIL</t>
+          <t>Ir. MUHAMAD RIDZHUAN BIN OTHMAN</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>myownemail83@yahoo.com</t>
+          <t>mridzhuan@gmail.com</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -19079,17 +19211,17 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Ir. KESAVAN A/L JAGANATHAN</t>
+          <t>Ir. MUAMMAR GADAFI BIN OTHMAN</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>jkesavan36@yahoo.com</t>
+          <t>mgadafi_othman@petronas.com.my</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -19104,65 +19236,77 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Ir. KAMARULZAMAN BIN IBRAHIM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr"/>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>+60 19-260 1967</t>
-        </is>
-      </c>
-      <c r="F621" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MOHD YUSRIZAL BIN MOHD YUSOF</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>mmohdyus@gmail.com</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Ir. JULIAN SAW CHERN-YANN</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr"/>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>+60 16-264 3644</t>
-        </is>
-      </c>
-      <c r="F622" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MOHD SYAZWAN BIN MD ZAIN</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>syazwanmz@gmail.com</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Ir. GERALD LIM CHIN SIONG</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
+          <t>Ir. MOHD SHAHRIZAN MD MOKHTAR</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>shah79@linuxmail.org</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>+1 630-894-3530</t>
+          <t>+31 20 236 3000</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -19179,12 +19323,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Ir. Dr. TAN CHEE FAI</t>
+          <t>Ir. MOHD SAZLI ISMAIL</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>tan@hqu.edu.cn</t>
+          <t>sazli_ismail@petronas.com.my</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -19194,7 +19338,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -19204,7 +19348,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Ir. Dr. ABDUL AZIM BIN ABDUL RAHMAN</t>
+          <t>Ir. MOHD ROZALI BIN AHMAD</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -19212,7 +19356,7 @@
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr">
         <is>
-          <t>+1 888-783-3522</t>
+          <t>+1 408-658-1000</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -19229,27 +19373,15 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Ir. DING JU LIANG</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>calan18@hotmail.com</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MOHD RASHIDI BIN MAAROF</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr">
         <is>
-          <t>+1 972-731-0800</t>
+          <t>+60 9-424 5000</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -19266,40 +19398,52 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Ir. CHOW HOE SENG</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr"/>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr"/>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>+1 281-848-6000</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MOHD NAJIB HAMSAN</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>jeebers101@gmail.com</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Ir. CHOK YIN THONG</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr"/>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr"/>
+          <t>Ir. MOHD KAMAL HAZIQ BIN KAMARUZAMAN</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>ir..bin@meinhardtgroup.com</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>+40 31 224 3000</t>
+          <t>+60 3-9212 7676</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -19316,15 +19460,27 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Ir. CHIN CHEE LEONG</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr"/>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
+          <t>Ir. MOHD KAMAL BIN MISDAR</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>mohdkamalmisdar@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>+60 16-568 2185</t>
+          <t>+60 13-206 8003</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -19341,22 +19497,22 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
+          <t>Ir. MOHD HANAFIAH B BESAR SA'AID</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>bernard.sagaiyaraj@optegy.com</t>
+          <t>han1391@gmail.com</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -19366,32 +19522,32 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Ir. BENJAMIN NG CHONG JIN</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr"/>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr"/>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>+60 19-223 7766</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. MOHD HAFIZI BIN AHMAD</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>ir@utm.my</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Ir. AQIL SIDDIQ BIN MUSTAPHA</t>
+          <t>Ir. MOHD FAZIDIN BIN FAISAL</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -19399,7 +19555,7 @@
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
-          <t>+1 281-848-6000</t>
+          <t>+1 212-896-3000</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -19416,12 +19572,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>DATO' Ir. JAMLUS BIN HAJI AZIZ</t>
+          <t>Ir. MOHD FADHIR BIN AKHKAR ALI</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>irjamlus@yahoo.com</t>
+          <t>mfadhirali@gmail.com</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -19439,15 +19595,19 @@
       <c r="G633" t="inlineStr"/>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr"/>
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Ir. MOHAMMAD BASAR BIN UMAR</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>ungkuadrian@gmail.com</t>
+          <t>mohammad.umar@mottmac.com.my</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -19462,17 +19622,17 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Ir. RIZAIDI BIN ROHIM</t>
+          <t>Ir. MOHAMAD FARID BIN HAJI MUSTAFA</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>zyede82@gmail.com</t>
+          <t>farid_mustafa@petronas.com.my</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -19487,7 +19647,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Ir. PHILIP OOI POH LEONG</t>
+          <t>Ir. MD ZAID BIN YUNOS</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -19495,7 +19655,7 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
         <is>
-          <t>+60 3-6101 1118</t>
+          <t>+60 1-300-88-5808</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -19512,15 +19672,27 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Ir. NORHAFIZ BIN JAAFAR</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr"/>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
+          <t>Ir. MD YUSOF BIN ISMAIL</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>yusof8400@yahoo.co.uk</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>+1 972-940-6000</t>
+          <t>+92 51 9257988</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -19537,12 +19709,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Ir. NIZAMIL FAIRUZ YAHYA</t>
+          <t>PROF. Ir. Dr. MD YUSOF BIN ISMAIL (C)</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>nizamil_fairuz@yahoo.com</t>
+          <t>yusof8400@yahoo.co.uk</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -19557,12 +19729,12 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>+60 17-777 1175</t>
+          <t>+92 51 9257988</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -19574,17 +19746,17 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Ir. NAZRULHISHAM BIN OSMAN</t>
+          <t>Ir. MAZNORZUHAIRI BIN MOHAMAD</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>nazrulhishamosman@gmail.com</t>
+          <t>maznorzuhairi.mohamad@singlebuoy.com</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -19599,15 +19771,27 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr"/>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr"/>
+          <t>Ir. MATHEN KUMAR A/L RAMACHENDRAM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>mathenk@rocketmail.com</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>+1 281-848-6000</t>
+          <t>+60 4-615 1000</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -19624,12 +19808,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Ir. MUHAMAD RIDZHUAN BIN OTHMAN</t>
+          <t>Ir. TAN CHEE SIONG</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>mekciken@yahoo.co.uk</t>
+          <t>chee.siong.tan@hotmail.com</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -19642,34 +19826,34 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>+1 631-435-0800</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Ir. MOHD SHAHRIZAN MD MOKHTAR</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>etaks@linuxmail.org</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. TAN CHEE HIN ERIC</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr">
         <is>
-          <t>+1 281-848-6000</t>
+          <t>+60 3-5611 8668</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -19686,12 +19870,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Ir. MOHD KAMAL HAZIQ BIN KAMARUZAMAN</t>
+          <t>Ir. TAN BOON TIONG</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>mohdkamalhaziq@gmail.com</t>
+          <t>bttan86@gmail.com</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -19704,39 +19888,39 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>+60 13-353 5417</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Ir. MD YUSOF BIN ISMAIL</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr"/>
-      <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr"/>
+          <t>Ir. T JAYAKUMAR A/L THURAIRAJAH</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>tjaya777@gmail.com</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>+92 51 9019100</t>
+          <t>+60 19-317 2734</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -19748,20 +19932,32 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>PROF. Ir. Dr. MD YUSOF BIN ISMAIL (C)</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
-      <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+          <t>Ir. SYED FADZIL BIN SYED MOHAMED</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>syedfadzil@gmail.com</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>+92 51 9019100</t>
+          <t>+60 19-322 3375</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -19773,15 +19969,27 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Ir. MATHEN KUMAR A/L RAMACHENDRAM</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
-      <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+          <t>Ir. SURAZMY BIN SULONG @ MANSOR</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>surazmy.mansor@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>+60 12-517 5655</t>
+          <t>+60139825323+97433208307</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -19791,39 +19999,39 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Ir. LAU CHUANG BING</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr"/>
-      <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>+1 360-380-2049</t>
-        </is>
-      </c>
-      <c r="F647" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. SUNDRALINGAM A/L MUTHANANDAN</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>sundra@petronas.com.my</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Ir. LAI YEW HONG</t>
+          <t>Ir. SUHELMEE BIN SAID</t>
         </is>
       </c>
       <c r="B648" t="inlineStr"/>
@@ -19831,7 +20039,7 @@
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr">
         <is>
-          <t>+43 1 727800</t>
+          <t>+44 1635 37928</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -19848,57 +20056,57 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Ir. GERALD LIM CHIN SIONG</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr"/>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>+1 206-632-8812</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. SUHAIMI ISMAIL</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>suhaimi.ismail@sapuraenergy.com</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Ir. Dr. TAN CHEE FAI</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>chee-fai@iukl.edu.my</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>accept_all_unverifiable</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
-      <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr"/>
+          <t>Ir. SIVANANTHAN A/L JOTHEE SUBRAMANIAM</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>+1 281-591-4000</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Ir. DING JU LIANG</t>
+          <t>Ir. SIVA KUMARAN A/L CHIDAMBRAM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -19906,12 +20114,12 @@
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr">
         <is>
-          <t>+60 16-605 3012</t>
+          <t>+1 269-924-0791</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -19923,7 +20131,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Ir. CHOK YIN THONG</t>
+          <t>Ir. SITI MARYAM BINTI MOHD KAMAL</t>
         </is>
       </c>
       <c r="B652" t="inlineStr"/>
@@ -19931,7 +20139,7 @@
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr">
         <is>
-          <t>+43 1 727800</t>
+          <t>+33 1 47 78 24 00</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -19948,22 +20156,22 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
+          <t>Ir. SIA HUA JIUH</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>bernard.sagaiyaraj@utp.edu.my</t>
+          <t>ahjiuhdotcom@yahoo.com</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>accept_all_unverifiable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -19973,32 +20181,32 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Ir. NORHAFIZ BIN JAAFAR</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr"/>
-      <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>+1 815-521-7411</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="G654" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+          <t>Ir. SHUHAIMI BIN ISMAIL</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>shuhaimi.ismail@gmail.com</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
+          <t>Ir. SHAHARUDIN BIN HAMIDUN</t>
         </is>
       </c>
       <c r="B655" t="inlineStr"/>
@@ -20006,15 +20214,1334 @@
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
+          <t>+31 10 232 0000</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Ir. LUM WAI LEONG</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>liverpooldude1@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Ir. LOURDES RAJ A/L DHOMNIC</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Ir. LOKMAN BIN MOHD NOH</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>lokman.ccesb@gmail.com</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Ir. LIM WAI TAT</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>+65 6408 2000</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Ir. LIM JOO CHAI</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>jc.promech@gmail.com</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Ir. LIM FOONG LING</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>+41 43 210 22 00</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Ir. LEE CHE CHUAN</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>+1 415-291-3700</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Ir. LAU CHUANG BING</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>+1 206-632-8812</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Ir. LAI YEW HONG</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>+40 31 224 3000</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Ir. KHAIRUL IZHAM BIN HALIL</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>myownemail83@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Ir. KESAVAN A/L JAGANATHAN</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>jkesavan36@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Ir. KAMARULZAMAN BIN IBRAHIM</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>+60 19-260 1967</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Ir. JULIAN SAW CHERN-YANN</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>+60 16-264 3644</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Ir. GERALD LIM CHIN SIONG</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>+1 630-894-3530</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Ir. Dr. TAN CHEE FAI</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>tan@hqu.edu.cn</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Ir. Dr. ABDUL AZIM BIN ABDUL RAHMAN</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>+1 888-783-3522</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Ir. DING JU LIANG</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>calan18@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>+1 972-731-0800</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Ir. CHOW HOE SENG</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Ir. CHOK YIN THONG</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>+40 31 224 3000</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Ir. CHIN CHEE LEONG</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>+60 16-568 2185</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>bernard.sagaiyaraj@optegy.com</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Ir. BENJAMIN NG CHONG JIN</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>+60 19-223 7766</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Ir. AQIL SIDDIQ BIN MUSTAPHA</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>DATO' Ir. JAMLUS BIN HAJI AZIZ</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>irjamlus@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr"/>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>ungkuadrian@gmail.com</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Ir. RIZAIDI BIN ROHIM</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>zyede82@gmail.com</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Ir. PHILIP OOI POH LEONG</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>+60 3-6101 1118</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Ir. NORHAFIZ BIN JAAFAR</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>+1 972-940-6000</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Ir. NIZAMIL FAIRUZ YAHYA</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>nizamil_fairuz@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>+60 17-777 1175</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Ir. NAZRULHISHAM BIN OSMAN</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>nazrulhishamosman@gmail.com</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Ir. MUHAMAD RIDZHUAN BIN OTHMAN</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>mekciken@yahoo.co.uk</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Ir. MOHD SHAHRIZAN MD MOKHTAR</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>etaks@linuxmail.org</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Ir. MOHD KAMAL HAZIQ BIN KAMARUZAMAN</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>mohdkamalhaziq@gmail.com</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>+60 13-353 5417</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Ir. MD YUSOF BIN ISMAIL</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>+92 51 9019100</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>PROF. Ir. Dr. MD YUSOF BIN ISMAIL (C)</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>+92 51 9019100</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Ir. MATHEN KUMAR A/L RAMACHENDRAM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>+60 12-517 5655</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Ir. SUHELMEE BIN SAID</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>+44 20 7496 4000</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Ir. SUHAIMI ISMAIL</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>suhaimi.ismail1969@gmail.com</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Ir. SIVA KUMARAN A/L CHIDAMBRAM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>+1 630-894-3530</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Ir. SHAHARUDIN BIN HAMIDUN</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>+1 281-848-6000</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Ir. LAU CHUANG BING</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>+1 360-380-2049</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Ir. LAI YEW HONG</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>+43 1 727800</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Ir. GERALD LIM CHIN SIONG</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>+1 206-632-8812</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Ir. Dr. TAN CHEE FAI</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>chee-fai@iukl.edu.my</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Ir. DING JU LIANG</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>+60 16-605 3012</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Ir. CHOK YIN THONG</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>+43 1 727800</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Ir. BERNARD SAGAIYARAJ J SWAMIRAJU</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>bernard.sagaiyaraj@utp.edu.my</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>accept_all_unverifiable</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Ir. NORHAFIZ BIN JAAFAR</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>+1 815-521-7411</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Ir. MUHAMAD RIZANI MOHD RIFFIN</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr">
+        <is>
           <t>+60 12-674 4670</t>
         </is>
       </c>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="G655" t="inlineStr">
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Ir. SIVA KUMARAN A/L CHIDAMBRAM</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>+1 206-632-8812</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
         <is>
           <t>valid</t>
         </is>
